--- a/forms/contact/edit_household.xlsx
+++ b/forms/contact/edit_household.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="4867" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>Edit House Hold</t>
   </si>
   <si>
-    <t>edit_household</t>
+    <t>contact:edit_household</t>
   </si>
   <si>
     <t>data</t>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -259,9 +259,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -272,19 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -303,8 +295,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,24 +349,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,21 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +388,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,25 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +466,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +526,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,163 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,11 +708,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,21 +767,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,165 +790,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1391,7 +1391,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
     <col min="2" max="2" width="22.7083333333333" customWidth="1"/>
@@ -1413,7 +1413,7 @@
     <col min="1014" max="1024" width="9.14166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:27">
+    <row r="1" ht="14.25" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:27">
+    <row r="2" ht="14.25" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:27">
+    <row r="4" ht="14.25" customHeight="1" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" customHeight="1" spans="1:27">
+    <row r="5" ht="14.25" customHeight="1" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:27">
+    <row r="6" ht="14.25" customHeight="1" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:27">
+    <row r="8" ht="14.25" customHeight="1" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:22">
+    <row r="9" ht="14.25" customHeight="1" spans="1:22">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:22">
+    <row r="10" ht="14.25" customHeight="1" spans="1:22">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:22">
+    <row r="11" ht="14.25" customHeight="1" spans="1:22">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:22">
+    <row r="12" ht="14.25" customHeight="1" spans="1:22">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:22">
+    <row r="13" ht="14.25" customHeight="1" spans="1:22">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" customHeight="1" spans="1:14">
+    <row r="14" ht="14.25" customHeight="1" spans="1:14">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" customHeight="1" spans="1:27">
+    <row r="15" ht="14.25" customHeight="1" spans="1:27">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" customHeight="1" spans="1:27">
+    <row r="16" ht="14.25" customHeight="1" spans="1:27">
       <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" customHeight="1" spans="1:27">
+    <row r="17" ht="14.25" customHeight="1" spans="1:27">
       <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" customHeight="1" spans="1:27">
+    <row r="18" ht="14.25" customHeight="1" spans="1:27">
       <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
     </row>
-    <row r="19" customHeight="1" spans="1:27">
+    <row r="19" ht="14.25" customHeight="1" spans="1:27">
       <c r="A19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
     </row>
-    <row r="20" customHeight="1" spans="1:27">
+    <row r="20" ht="14.25" customHeight="1" spans="1:27">
       <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
     </row>
-    <row r="21" customHeight="1" spans="1:27">
+    <row r="21" ht="14.25" customHeight="1" spans="1:27">
       <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
     </row>
-    <row r="22" customHeight="1" spans="1:27">
+    <row r="22" ht="14.25" customHeight="1" spans="1:27">
       <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
     </row>
-    <row r="23" customHeight="1" spans="1:27">
+    <row r="23" ht="14.25" customHeight="1" spans="1:27">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -23765,7 +23765,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4833333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.4833333333333" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="22.4333333333333" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -23776,7 +23776,7 @@
     <col min="24" max="26" width="14.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:23">
+    <row r="1" ht="14.25" customHeight="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -23809,7 +23809,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:23">
+    <row r="2" ht="14.25" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:23">
+    <row r="3" ht="14.25" customHeight="1" spans="1:23">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -24866,10 +24866,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.2916666666667" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="28.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="12.7083333333333" customWidth="1"/>
@@ -24881,7 +24881,7 @@
     <col min="17" max="26" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:26">
+    <row r="1" ht="14.25" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -24923,7 +24923,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:26">
+    <row r="2" ht="14.25" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -24932,7 +24932,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2024-08-27 0-22</v>
+        <v>2024-09-02 23-49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -24962,7 +24962,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:26">
+    <row r="3" ht="14.25" customHeight="1" spans="1:26">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -24990,7 +24990,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:26">
+    <row r="4" ht="14.25" customHeight="1" spans="1:26">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -25018,7 +25018,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" customHeight="1" spans="1:26">
+    <row r="5" ht="14.25" customHeight="1" spans="1:26">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -25046,7 +25046,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customHeight="1" spans="1:26">
+    <row r="6" ht="14.25" customHeight="1" spans="1:26">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -25074,7 +25074,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customHeight="1" spans="1:26">
+    <row r="7" ht="14.25" customHeight="1" spans="1:26">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -25102,7 +25102,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customHeight="1" spans="1:26">
+    <row r="8" ht="14.25" customHeight="1" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -25130,7 +25130,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:26">
+    <row r="9" ht="14.25" customHeight="1" spans="1:26">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -25158,7 +25158,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customHeight="1" spans="1:26">
+    <row r="10" ht="14.25" customHeight="1" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -25186,7 +25186,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customHeight="1" spans="1:26">
+    <row r="11" ht="14.25" customHeight="1" spans="1:26">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -25214,7 +25214,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:26">
+    <row r="12" ht="14.25" customHeight="1" spans="1:26">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -25242,7 +25242,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:26">
+    <row r="13" ht="14.25" customHeight="1" spans="1:26">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -25270,7 +25270,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" customHeight="1" spans="1:26">
+    <row r="14" ht="14.25" customHeight="1" spans="1:26">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -25298,7 +25298,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" customHeight="1" spans="1:26">
+    <row r="15" ht="14.25" customHeight="1" spans="1:26">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -25326,7 +25326,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customHeight="1" spans="1:26">
+    <row r="16" ht="14.25" customHeight="1" spans="1:26">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -25354,7 +25354,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" customHeight="1" spans="1:26">
+    <row r="17" ht="14.25" customHeight="1" spans="1:26">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -25382,7 +25382,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" customHeight="1" spans="1:26">
+    <row r="18" ht="14.25" customHeight="1" spans="1:26">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -25410,7 +25410,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" customHeight="1" spans="1:26">
+    <row r="19" ht="14.25" customHeight="1" spans="1:26">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -25438,7 +25438,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" customHeight="1" spans="1:26">
+    <row r="20" ht="14.25" customHeight="1" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -25466,7 +25466,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customHeight="1" spans="1:26">
+    <row r="21" ht="14.25" customHeight="1" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
